--- a/biology/Médecine/Michel_Fain/Michel_Fain.xlsx
+++ b/biology/Médecine/Michel_Fain/Michel_Fain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Fain, né le 29 novembre 1917 à Paris et mort le 2 juillet 2007 à Paris, est un psychanalyste et psychosomaticien français.
 </t>
@@ -511,9 +523,11 @@
           <t>Parcours professionnel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Fain est psychanalyste[1], membre de la Société psychanalytique de Paris dont il est président en 1982-1983[2] et créateur de l'Institut de psychosomatique de Paris, avec Pierre Marty, Denise Braunschweig, et Catherine Parat. La psychosomatique à laquelle il se réfère est celle de l’École de psychosomatique de Paris, courant de pensée psychanalytique qui s’est développé à partir des années 1950 autour de Pierre Marty, Michel de M'Uzan, Christian David et lui-même.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Fain est psychanalyste, membre de la Société psychanalytique de Paris dont il est président en 1982-1983 et créateur de l'Institut de psychosomatique de Paris, avec Pierre Marty, Denise Braunschweig, et Catherine Parat. La psychosomatique à laquelle il se réfère est celle de l’École de psychosomatique de Paris, courant de pensée psychanalytique qui s’est développé à partir des années 1950 autour de Pierre Marty, Michel de M'Uzan, Christian David et lui-même.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Travaux théoriques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a théorisé la notion de « censure de l'amante », qui montre comment une distance s'établit, lors des soins que la mère donne à l'enfant, entre celle-ci et son enfant, grâce à sa rêverie qui mène ses pensées vers le père de l'enfant et permet une première triangulation dans la relation[3]. Il reprend cette théorisation avec Denise Braunschweig, en 1975[4].
-Michel Fain est surtout connu pour son apport métapsychologique à la psychosomatique psychanalytique qu'il a développée avec Pierre Marty et Michel de M'Uzan. Il collabore activement à la Revue française de psychosomatique, avec une quinzaine d'articles[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a théorisé la notion de « censure de l'amante », qui montre comment une distance s'établit, lors des soins que la mère donne à l'enfant, entre celle-ci et son enfant, grâce à sa rêverie qui mène ses pensées vers le père de l'enfant et permet une première triangulation dans la relation. Il reprend cette théorisation avec Denise Braunschweig, en 1975.
+Michel Fain est surtout connu pour son apport métapsychologique à la psychosomatique psychanalytique qu'il a développée avec Pierre Marty et Michel de M'Uzan. Il collabore activement à la Revue française de psychosomatique, avec une quinzaine d'articles.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>avec Jean Bergeret Le Psychanalyste à l'écoute du toxicomane, Paris, Dunod, 1981, 165 p. (ISBN 2-04-011398-3)
 avec Denise Braunschweig :
